--- a/data_excel/401.xlsx
+++ b/data_excel/401.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -93,9 +93,6 @@
     <t>放進去</t>
   </si>
   <si>
-    <t>nv</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -103,13 +100,17 @@
   </si>
   <si>
     <t>。</t>
+  </si>
+  <si>
+    <t>pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +125,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -133,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -141,12 +149,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -451,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -556,7 +580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -567,20 +591,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -602,7 +626,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>

--- a/data_excel/401.xlsx
+++ b/data_excel/401.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>書架上</t>
   </si>
@@ -103,6 +103,16 @@
   </si>
   <si>
     <t>pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +142,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -141,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -164,13 +182,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -473,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -592,48 +650,59 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
     </row>

--- a/data_excel/401.xlsx
+++ b/data_excel/401.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>書架上</t>
   </si>
@@ -103,16 +103,6 @@
   </si>
   <si>
     <t>pv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被</t>
-  </si>
-  <si>
-    <t>passive</t>
-  </si>
-  <si>
-    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,14 +132,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,53 +164,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -531,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -650,59 +592,48 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
       <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
         <v>20</v>
       </c>
     </row>

--- a/data_excel/401.xlsx
+++ b/data_excel/401.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Lab Test\神經網路\makedata\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>書架上</t>
   </si>
@@ -103,16 +103,6 @@
   </si>
   <si>
     <t>pv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被</t>
-  </si>
-  <si>
-    <t>passive</t>
-  </si>
-  <si>
-    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,14 +132,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,53 +164,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -531,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -650,59 +592,48 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
       <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
         <v>20</v>
       </c>
     </row>

--- a/data_excel/401.xlsx
+++ b/data_excel/401.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Lab Test\神經網路\makedata\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>書架上</t>
   </si>
@@ -103,6 +103,16 @@
   </si>
   <si>
     <t>pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +142,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -141,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -164,13 +182,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -473,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -592,48 +650,59 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
     </row>

--- a/data_excel/401.xlsx
+++ b/data_excel/401.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Lab Test\神經網路\makedata\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -93,16 +93,17 @@
     <t>放進去</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>。</t>
+  </si>
+  <si>
+    <t>snv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>+</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>。</t>
-  </si>
-  <si>
-    <t>pv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -153,6 +154,17 @@
       <left style="medium">
         <color rgb="FFFF0000"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FFFF0000"/>
       </right>
@@ -168,9 +180,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -476,7 +489,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -596,15 +609,15 @@
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -626,7 +639,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
